--- a/teaching/traditional_assets/database/data/greece/greece_paper_forest_products.xlsx
+++ b/teaching/traditional_assets/database/data/greece/greece_paper_forest_products.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0332</v>
+        <v>0.0158</v>
       </c>
       <c r="G2">
-        <v>-0.02847305389221557</v>
+        <v>-0.05072992700729927</v>
       </c>
       <c r="H2">
-        <v>-0.02847305389221557</v>
+        <v>-0.05072992700729927</v>
       </c>
       <c r="I2">
-        <v>-0.1266467065868264</v>
+        <v>-0.1248175182481752</v>
       </c>
       <c r="J2">
-        <v>-0.1266467065868264</v>
+        <v>-0.1248175182481752</v>
       </c>
       <c r="K2">
-        <v>-6.25</v>
+        <v>-4.49</v>
       </c>
       <c r="L2">
-        <v>-0.187125748502994</v>
+        <v>-0.1638686131386861</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.076</v>
+        <v>0.985</v>
       </c>
       <c r="V2">
-        <v>0.01270903010033445</v>
+        <v>0.1865530303030303</v>
       </c>
       <c r="W2">
-        <v>0.3654970760233918</v>
+        <v>0.3301470588235295</v>
       </c>
       <c r="X2">
-        <v>0.5979824520456911</v>
+        <v>0.4905957124436082</v>
       </c>
       <c r="Y2">
-        <v>-0.2324853760222994</v>
+        <v>-0.1604486536200787</v>
       </c>
       <c r="Z2">
-        <v>0.6928166939783027</v>
+        <v>0.6045362280469508</v>
       </c>
       <c r="AA2">
-        <v>-0.08774295256072517</v>
+        <v>-0.07545671167593328</v>
       </c>
       <c r="AB2">
-        <v>0.1044794533011288</v>
+        <v>0.0935476619505296</v>
       </c>
       <c r="AC2">
-        <v>-0.192222405861854</v>
+        <v>-0.1690043736264629</v>
       </c>
       <c r="AD2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AG2">
-        <v>58.924</v>
+        <v>44.015</v>
       </c>
       <c r="AH2">
-        <v>0.9079716835949523</v>
+        <v>0.8949880668257756</v>
       </c>
       <c r="AI2">
-        <v>1.299559471365639</v>
+        <v>1.122194513715711</v>
       </c>
       <c r="AJ2">
-        <v>0.9078639221003328</v>
+        <v>0.892889745410285</v>
       </c>
       <c r="AK2">
-        <v>1.300061777424764</v>
+        <v>1.125271634922664</v>
       </c>
       <c r="AL2">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="AM2">
-        <v>3.79</v>
+        <v>2.174</v>
       </c>
       <c r="AN2">
-        <v>-43.06569343065693</v>
+        <v>-115.979381443299</v>
       </c>
       <c r="AO2">
-        <v>-1.116094986807388</v>
+        <v>-1.561643835616438</v>
       </c>
       <c r="AP2">
-        <v>-43.01021897810219</v>
+        <v>-113.4407216494845</v>
       </c>
       <c r="AQ2">
-        <v>-1.116094986807388</v>
+        <v>-1.573137074517019</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0332</v>
+        <v>0.0158</v>
       </c>
       <c r="G3">
-        <v>-0.02847305389221557</v>
+        <v>-0.05072992700729927</v>
       </c>
       <c r="H3">
-        <v>-0.02847305389221557</v>
+        <v>-0.05072992700729927</v>
       </c>
       <c r="I3">
-        <v>-0.1266467065868264</v>
+        <v>-0.1248175182481752</v>
       </c>
       <c r="J3">
-        <v>-0.1266467065868264</v>
+        <v>-0.1248175182481752</v>
       </c>
       <c r="K3">
-        <v>-6.25</v>
+        <v>-4.49</v>
       </c>
       <c r="L3">
-        <v>-0.187125748502994</v>
+        <v>-0.1638686131386861</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.076</v>
+        <v>0.985</v>
       </c>
       <c r="V3">
-        <v>0.01270903010033445</v>
+        <v>0.1865530303030303</v>
       </c>
       <c r="W3">
-        <v>0.3654970760233918</v>
+        <v>0.3301470588235295</v>
       </c>
       <c r="X3">
-        <v>0.5979824520456911</v>
+        <v>0.4905957124436082</v>
       </c>
       <c r="Y3">
-        <v>-0.2324853760222994</v>
+        <v>-0.1604486536200787</v>
       </c>
       <c r="Z3">
-        <v>0.6928166939783027</v>
+        <v>0.6045362280469508</v>
       </c>
       <c r="AA3">
-        <v>-0.08774295256072517</v>
+        <v>-0.07545671167593328</v>
       </c>
       <c r="AB3">
-        <v>0.1044794533011288</v>
+        <v>0.0935476619505296</v>
       </c>
       <c r="AC3">
-        <v>-0.192222405861854</v>
+        <v>-0.1690043736264629</v>
       </c>
       <c r="AD3">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AG3">
-        <v>58.924</v>
+        <v>44.015</v>
       </c>
       <c r="AH3">
-        <v>0.9079716835949523</v>
+        <v>0.8949880668257756</v>
       </c>
       <c r="AI3">
-        <v>1.299559471365639</v>
+        <v>1.122194513715711</v>
       </c>
       <c r="AJ3">
-        <v>0.9078639221003328</v>
+        <v>0.892889745410285</v>
       </c>
       <c r="AK3">
-        <v>1.300061777424764</v>
+        <v>1.125271634922664</v>
       </c>
       <c r="AL3">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="AM3">
-        <v>3.79</v>
+        <v>2.174</v>
       </c>
       <c r="AN3">
-        <v>-43.06569343065693</v>
+        <v>-115.979381443299</v>
       </c>
       <c r="AO3">
-        <v>-1.116094986807388</v>
+        <v>-1.561643835616438</v>
       </c>
       <c r="AP3">
-        <v>-43.01021897810219</v>
+        <v>-113.4407216494845</v>
       </c>
       <c r="AQ3">
-        <v>-1.116094986807388</v>
+        <v>-1.573137074517019</v>
       </c>
     </row>
   </sheetData>
